--- a/Modélisation/3.Dictionnaire de données/تأمينات.xlsx
+++ b/Modélisation/3.Dictionnaire de données/تأمينات.xlsx
@@ -34,9 +34,6 @@
     <t>PluralName</t>
   </si>
   <si>
-    <t>التامين</t>
-  </si>
-  <si>
     <t>تأمينات</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Assurances</t>
+  </si>
+  <si>
+    <t>التأمين</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,13 +501,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
